--- a/NHIS variable list REVISED 6-28-24.xlsx
+++ b/NHIS variable list REVISED 6-28-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmorris/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncaandt-my.sharepoint.com/personal/hmoradi_ncat_edu/Documents/06_Codes/NHIS-surf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61B705-05B5-344E-965C-B0DC9F39AF39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D61B705-05B5-344E-965C-B0DC9F39AF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E7F789B-A703-41ED-B8D1-BE8A29580C0B}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="4320" windowWidth="31440" windowHeight="11500" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -901,17 +901,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,21 +919,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,9 +945,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -993,7 +985,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1099,7 +1091,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1241,7 +1233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1251,1299 +1243,1296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15A277-6A4B-4FED-94DF-816CADB374AA}">
   <dimension ref="B1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="180" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F2:F70"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="66" style="12" customWidth="1"/>
-    <col min="6" max="6" width="69.6640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="66" style="11" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="12" t="s">
         <v>229</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="23"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D34" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D38" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="23"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D40" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J42" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>54</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>60</v>
       </c>
       <c r="C44" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J44" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J45" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J46" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J47" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>68</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J48" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J49" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J50" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J51" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>103</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J52" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>104</v>
       </c>
       <c r="C53" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="D53" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>106</v>
       </c>
       <c r="C54" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="12" t="s">
+      <c r="D54" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J54" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>189</v>
       </c>
       <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J56" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J57" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>113</v>
       </c>
       <c r="C58" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="J58" s="16" t="s">
+      <c r="J58" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>117</v>
       </c>
       <c r="C59" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="J59" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>118</v>
       </c>
       <c r="C60" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="D60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J61" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J62" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J63" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>216</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J64" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J65" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J66" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J67" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" t="s">
         <v>205</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J68" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J69" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="11" t="s">
         <v>237</v>
       </c>
     </row>
